--- a/data/s_vals/2022/cleavinger_garrett.xlsx
+++ b/data/s_vals/2022/cleavinger_garrett.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.257316727120616</v>
+        <v>15.88780690183548</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1798702773735408</v>
+        <v>0.003208871385164791</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06596917852498385</v>
+        <v>0.002571899574220771</v>
       </c>
       <c r="D3" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.328325525557565</v>
+        <v>32.58876939670514</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C4" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D4" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.345670988543927</v>
+        <v>8.974608811992548</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C5" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C6" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D6" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.345670988543927</v>
+        <v>8.974608811992548</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/cleavinger_garrett.xlsx
+++ b/data/s_vals/2022/cleavinger_garrett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>15.88780690183548</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>32.58876939670514</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>8.974608811992548</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -588,6 +605,9 @@
       </c>
       <c r="G6" t="n">
         <v>8.974608811992548</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/cleavinger_garrett.xlsx
+++ b/data/s_vals/2022/cleavinger_garrett.xlsx
@@ -551,7 +551,7 @@
         <v>8.974608811992548</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -607,7 +607,7 @@
         <v>8.974608811992548</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/cleavinger_garrett.xlsx
+++ b/data/s_vals/2022/cleavinger_garrett.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.88780690183548</v>
+        <v>19.48425592650926</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003208871385164791</v>
+        <v>0.003078177322033415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002571899574220771</v>
+        <v>0.002658071450198252</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E3" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>32.58876939670514</v>
+        <v>32.58638010927226</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C4" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D4" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.974608811992548</v>
+        <v>8.656069925401464</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C5" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C6" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D6" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.974608811992548</v>
+        <v>8.656069925401464</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
